--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,43</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>12,17</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 14,81</t>
+          <t>14,0; 14,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 12,62</t>
+          <t>10,13; 12,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,22; 15,0</t>
+          <t>14,31; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,39</t>
+          <t>12,01; 14,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 14,82</t>
+          <t>14,24; 14,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,99</t>
+          <t>11,33; 13,21</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 13,44</t>
+          <t>12,95; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 10,95</t>
+          <t>10,16; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 13,35</t>
+          <t>12,79; 13,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 12,51</t>
+          <t>11,55; 12,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 13,33</t>
+          <t>12,93; 13,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,97; 11,62</t>
+          <t>10,96; 11,62</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 13,87</t>
+          <t>13,16; 13,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 10,2</t>
+          <t>9,51; 10,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 13,87</t>
+          <t>13,32; 13,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 10,93</t>
+          <t>10,16; 10,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 13,75</t>
+          <t>13,33; 13,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 10,51</t>
+          <t>9,97; 10,52</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,54</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 13,7</t>
+          <t>13,27; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 10,69</t>
+          <t>10,1; 10,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 13,75</t>
+          <t>13,27; 13,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 11,87</t>
+          <t>11,24; 11,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 13,65</t>
+          <t>13,33; 13,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 11,19</t>
+          <t>10,77; 11,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental general - escala</t>
+          <t>Salud mental general - escala (tasa de respuesta: 98,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,66</t>
+          <t>10,08; 12,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,61</t>
+          <t>11,89; 14,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 13,21</t>
+          <t>11,32; 13,13</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 10,99</t>
+          <t>10,17; 11,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 12,51</t>
+          <t>11,64; 12,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 11,62</t>
+          <t>10,96; 11,6</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 10,23</t>
+          <t>9,48; 10,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 10,92</t>
+          <t>10,17; 10,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 10,52</t>
+          <t>9,97; 10,5</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 10,67</t>
+          <t>10,12; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 11,84</t>
+          <t>11,23; 11,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 11,21</t>
+          <t>10,77; 11,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>14,37</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>13,1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>14,66</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,1</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>14,53</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,17</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10,08; 12,69</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>14,0; 14,83</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 12,69</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>11,89; 14,54</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>14,31; 15,13</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,54</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>11,32; 13,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>14,24; 14,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,32; 13,13</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>13,15</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,53</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>12,04</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>12,99</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,04</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>11,28</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13,07</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>10,17; 11,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>12,95; 13,36</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 11,0</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>11,64; 12,55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>12,79; 13,22</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>11,64; 12,55</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>10,96; 11,6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>12,93; 13,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 11,6</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>13,51</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,84</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>13,62</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,53</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>10,23</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>13,57</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>9,48; 10,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>13,16; 13,88</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 10,2</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>10,17; 10,96</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>13,32; 13,95</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 10,96</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>9,97; 10,5</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>13,33; 13,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 10,5</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>13,43</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>11,54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,45</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,54</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>10,98</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>13,44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10,12; 10,7</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>13,27; 13,58</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10,12; 10,7</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>11,23; 11,9</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>13,27; 13,62</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 11,9</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>10,77; 11,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13,33; 13,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 11,22</t>
         </is>
       </c>
     </row>
